--- a/biology/Médecine/1435_en_santé_et_médecine/1435_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1435_en_santé_et_médecine/1435_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1435_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1435_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1435 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1435_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1435_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,14 +523,16 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>13 avril : fondation à Haussonville en Lorraine, près de Nancy, par Jean, seigneur du lieu, et Irmension Dautel, son épouse, d'un hôpital « pour venir en aide aux mendiants et aux pèlerins[1] ».
-Fondation de l'hôpital de Jérusalem à Bruges, dans le comté de Flandre par Pierre d'Adornes et sa femme Isabelle Bradericx[2].
-Fondation d'un hôpital à Auxonne, en Bourgogne, par Amiot Regnard, l'ancien ayant été totalement détruit par les flammes en 1418[3].
-Fondation de la Surgeons' Fellowship (« Compagnie des chirurgiens ») de Londres[4].
-Des léproseries (leper houses) sont mentionnées à Cowgate (Lynn) et West Lynn (en) dans le comté de Norfolk en Angleterre[5].
-Dernière vague d'épidémie signalée dans l'Empire byzantin[6].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>13 avril : fondation à Haussonville en Lorraine, près de Nancy, par Jean, seigneur du lieu, et Irmension Dautel, son épouse, d'un hôpital « pour venir en aide aux mendiants et aux pèlerins ».
+Fondation de l'hôpital de Jérusalem à Bruges, dans le comté de Flandre par Pierre d'Adornes et sa femme Isabelle Bradericx.
+Fondation d'un hôpital à Auxonne, en Bourgogne, par Amiot Regnard, l'ancien ayant été totalement détruit par les flammes en 1418.
+Fondation de la Surgeons' Fellowship (« Compagnie des chirurgiens ») de Londres.
+Des léproseries (leper houses) sont mentionnées à Cowgate (Lynn) et West Lynn (en) dans le comté de Norfolk en Angleterre.
+Dernière vague d'épidémie signalée dans l'Empire byzantin.</t>
         </is>
       </c>
     </row>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1435_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1435_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,9 +560,11 @@
           <t>Personnalité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Fl. Slawa de Varsovie, seule femme médecin juive attestée en Europe orientale, et dont le mari signe en son nom un accord selon lequel elle-même s'engage à soigner un veuf de la maladie qui a tué sa femme, et à ne pas percevoir d'honoraires si le traitement ne réussit pas[7].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Fl. Slawa de Varsovie, seule femme médecin juive attestée en Europe orientale, et dont le mari signe en son nom un accord selon lequel elle-même s'engage à soigner un veuf de la maladie qui a tué sa femme, et à ne pas percevoir d'honoraires si le traitement ne réussit pas.</t>
         </is>
       </c>
     </row>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1435_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1435_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,9 +592,11 @@
           <t>Naissance</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Vers 1435 : Ulrich Ellenbog (de) (mort en 1499), chirurgien à la cour du Tyrol, auteur d'un traité « sur les vapeurs et les fumées toxiques » (Von den giftigen besen Tempffen und Reuchen) destiné aux forgerons d'Augsbourg, paru en 1473 et premier ouvrage connu de « médecine du travail[8] ».</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Vers 1435 : Ulrich Ellenbog (de) (mort en 1499), chirurgien à la cour du Tyrol, auteur d'un traité « sur les vapeurs et les fumées toxiques » (Von den giftigen besen Tempffen und Reuchen) destiné aux forgerons d'Augsbourg, paru en 1473 et premier ouvrage connu de « médecine du travail ».</t>
         </is>
       </c>
     </row>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1435_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1435_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,10 +624,12 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Avril : Amplonius Rating de Berka (né entre 1363 et 1365), docteur en médecine, fondateur à Erfurt du collège de médecine et de la bibliothèque qui portent son nom[9],[10].
-Nicolas de Le Horbe (né à une date inconnue), médecin des ducs de Bourgogne Jean sans Peur et Philippe le Bon[11].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Avril : Amplonius Rating de Berka (né entre 1363 et 1365), docteur en médecine, fondateur à Erfurt du collège de médecine et de la bibliothèque qui portent son nom,.
+Nicolas de Le Horbe (né à une date inconnue), médecin des ducs de Bourgogne Jean sans Peur et Philippe le Bon.</t>
         </is>
       </c>
     </row>
